--- a/python/invoices.xlsx
+++ b/python/invoices.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\laure\Documents\evolveu\python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4B5DF37-581F-436F-86BE-4C5BB6EA0004}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49E8828B-F0F4-4FBE-A1E8-65506B4AD7AB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" activeTab="2" xr2:uid="{82468A8D-9950-43B5-8B11-63209BEF58F9}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{82468A8D-9950-43B5-8B11-63209BEF58F9}"/>
   </bookViews>
   <sheets>
     <sheet name="customers" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="31">
   <si>
     <t>driver</t>
   </si>
@@ -56,9 +56,6 @@
     <t>invoice_date</t>
   </si>
   <si>
-    <t>invoice_total</t>
-  </si>
-  <si>
     <t>inventory</t>
   </si>
   <si>
@@ -80,43 +77,55 @@
     <t>prod_cost</t>
   </si>
   <si>
-    <t>line_cost</t>
-  </si>
-  <si>
-    <t>Bob Smith</t>
-  </si>
-  <si>
-    <t>Sally White</t>
-  </si>
-  <si>
-    <t>Fred Davis</t>
-  </si>
-  <si>
-    <t>Tom Johnson</t>
-  </si>
-  <si>
-    <t>Lisa Miller</t>
-  </si>
-  <si>
-    <t>Pat Browne</t>
-  </si>
-  <si>
-    <t>Greg Wilson</t>
-  </si>
-  <si>
-    <t>Steve Jones</t>
-  </si>
-  <si>
-    <t>Larry Moore</t>
-  </si>
-  <si>
-    <t>Alex Taylor</t>
-  </si>
-  <si>
-    <t>Tim Kim</t>
-  </si>
-  <si>
     <t>cust_name</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>Bobby Jones</t>
+  </si>
+  <si>
+    <t>Tiger Woods</t>
+  </si>
+  <si>
+    <t>Jack Nicklaus</t>
+  </si>
+  <si>
+    <t>Nick Faldo</t>
+  </si>
+  <si>
+    <t>Rory McIllroy</t>
+  </si>
+  <si>
+    <t>Brooke Henerson</t>
+  </si>
+  <si>
+    <t>Lorena Ochoa</t>
+  </si>
+  <si>
+    <t>Arnold Palmer</t>
+  </si>
+  <si>
+    <t>Brooks Koepka</t>
+  </si>
+  <si>
+    <t>Ricky Fowler</t>
+  </si>
+  <si>
+    <t>Adam Scott</t>
+  </si>
+  <si>
+    <t>Jordan Spieth</t>
+  </si>
+  <si>
+    <t>John Daly</t>
+  </si>
+  <si>
+    <t>Tommy Fleetwood</t>
+  </si>
+  <si>
+    <t>Dustin Johnson</t>
   </si>
 </sst>
 </file>
@@ -140,18 +149,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -170,7 +173,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -485,24 +490,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40BF115F-5AA8-4253-812E-4BA511FBAB40}">
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:B19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="6.53125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.3984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.45">
@@ -510,7 +515,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.45">
@@ -518,7 +523,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.45">
@@ -526,7 +531,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.45">
@@ -534,7 +539,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.45">
@@ -542,7 +547,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.45">
@@ -550,7 +555,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.45">
@@ -558,7 +563,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.45">
@@ -566,7 +571,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.45">
@@ -574,7 +579,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.45">
@@ -582,7 +587,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.45">
@@ -590,7 +595,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.45">
@@ -599,6 +604,43 @@
       </c>
       <c r="B13" t="s">
         <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A16">
+        <v>13</v>
+      </c>
+      <c r="B16" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A17">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A18">
+        <v>14.5</v>
+      </c>
+      <c r="B18" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A19" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B19" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -608,10 +650,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22E85A0E-46C4-4FD2-A51D-A16CD3D793C6}">
-  <dimension ref="A1:D41"/>
+  <dimension ref="A1:C41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -619,24 +661,20 @@
     <col min="1" max="1" width="11.19921875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6.53125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.1328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.3984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>1</v>
       </c>
@@ -647,7 +685,7 @@
         <v>43466</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>2</v>
       </c>
@@ -658,7 +696,7 @@
         <v>43467</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>3</v>
       </c>
@@ -669,7 +707,7 @@
         <v>43468</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>4</v>
       </c>
@@ -680,7 +718,7 @@
         <v>43468</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>5</v>
       </c>
@@ -691,7 +729,7 @@
         <v>43469</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>6</v>
       </c>
@@ -702,7 +740,7 @@
         <v>43470</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>7</v>
       </c>
@@ -713,7 +751,7 @@
         <v>43470</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>8</v>
       </c>
@@ -724,7 +762,7 @@
         <v>43470</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>9</v>
       </c>
@@ -735,7 +773,7 @@
         <v>43472</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>10</v>
       </c>
@@ -746,7 +784,7 @@
         <v>43472</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>11</v>
       </c>
@@ -757,7 +795,7 @@
         <v>43473</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>12</v>
       </c>
@@ -768,7 +806,7 @@
         <v>43474</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>13</v>
       </c>
@@ -779,7 +817,7 @@
         <v>43474</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>14</v>
       </c>
@@ -790,7 +828,7 @@
         <v>43475</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1077,8 +1115,8 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="I2:I41">
-    <sortCondition ref="I2"/>
+  <sortState ref="H2:H41">
+    <sortCondition ref="H2"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1086,10 +1124,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83EEB965-543B-4620-86C0-F3FFE60B6A2B}">
-  <dimension ref="A1:E58"/>
+  <dimension ref="A1:C55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1097,66 +1135,42 @@
     <col min="1" max="1" width="11.19921875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7.06640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7.59765625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.86328125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>12</v>
-      </c>
       <c r="C1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
-      <c r="D2">
-        <f>VLOOKUP(B2,products!$A:$D,COLUMN(products!$C$1))</f>
-        <v>500</v>
-      </c>
-      <c r="E2">
-        <f>C2*D2</f>
-        <v>500</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
-      <c r="D3">
-        <f>VLOOKUP(B3,products!$A:$D,COLUMN(products!$C$1))</f>
-        <v>300</v>
-      </c>
-      <c r="E3">
-        <f t="shared" ref="E3:E17" si="0">C3*D3</f>
-        <v>300</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>1</v>
       </c>
@@ -1166,16 +1180,8 @@
       <c r="C4">
         <v>1</v>
       </c>
-      <c r="D4">
-        <f>VLOOKUP(B4,products!$A:$D,COLUMN(products!$C$1))</f>
-        <v>200</v>
-      </c>
-      <c r="E4">
-        <f t="shared" si="0"/>
-        <v>200</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>2</v>
       </c>
@@ -1185,16 +1191,8 @@
       <c r="C5">
         <v>1</v>
       </c>
-      <c r="D5">
-        <f>VLOOKUP(B5,products!$A:$D,COLUMN(products!$C$1))</f>
-        <v>150</v>
-      </c>
-      <c r="E5">
-        <f t="shared" si="0"/>
-        <v>150</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>2</v>
       </c>
@@ -1204,16 +1202,8 @@
       <c r="C6">
         <v>1</v>
       </c>
-      <c r="D6">
-        <f>VLOOKUP(B6,products!$A:$D,COLUMN(products!$C$1))</f>
-        <v>250</v>
-      </c>
-      <c r="E6">
-        <f t="shared" si="0"/>
-        <v>250</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>3</v>
       </c>
@@ -1223,605 +1213,349 @@
       <c r="C7">
         <v>2</v>
       </c>
-      <c r="D7">
-        <f>VLOOKUP(B7,products!$A:$D,COLUMN(products!$C$1))</f>
-        <v>200</v>
-      </c>
-      <c r="E7">
-        <f t="shared" si="0"/>
-        <v>400</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>3</v>
       </c>
       <c r="B8">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C8">
         <v>1</v>
       </c>
-      <c r="D8">
-        <f>VLOOKUP(B8,products!$A:$D,COLUMN(products!$C$1))</f>
-        <v>500</v>
-      </c>
-      <c r="E8">
-        <f t="shared" si="0"/>
-        <v>500</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A9">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B9">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C9">
         <v>1</v>
       </c>
-      <c r="D9">
-        <f>VLOOKUP(B9,products!$A:$D,COLUMN(products!$C$1))</f>
-        <v>150</v>
-      </c>
-      <c r="E9">
-        <f t="shared" si="0"/>
-        <v>150</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A10">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A11">
         <v>6</v>
       </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10">
-        <f>VLOOKUP(B10,products!$A:$D,COLUMN(products!$C$1))</f>
-        <v>250</v>
-      </c>
-      <c r="E10">
-        <f t="shared" si="0"/>
-        <v>250</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A11">
+      <c r="B11">
+        <v>5</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A12">
+        <v>7</v>
+      </c>
+      <c r="B12">
+        <v>5</v>
+      </c>
+      <c r="C12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A13">
+        <v>8</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A14">
+        <v>9</v>
+      </c>
+      <c r="B14">
+        <v>2</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A15">
+        <v>10</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A16">
+        <v>11</v>
+      </c>
+      <c r="B16">
+        <v>2</v>
+      </c>
+      <c r="C16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A17">
+        <v>12</v>
+      </c>
+      <c r="B17">
+        <v>3</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A18">
+        <v>13</v>
+      </c>
+      <c r="B18">
         <v>4</v>
       </c>
-      <c r="B11">
+      <c r="C18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A19">
+        <v>14</v>
+      </c>
+      <c r="B19">
+        <v>5</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A20">
+        <v>15</v>
+      </c>
+      <c r="B20">
         <v>6</v>
       </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-      <c r="D11">
-        <f>VLOOKUP(B11,products!$A:$D,COLUMN(products!$C$1))</f>
-        <v>250</v>
-      </c>
-      <c r="E11">
-        <f t="shared" si="0"/>
-        <v>250</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A12">
-        <v>5</v>
-      </c>
-      <c r="B12">
-        <v>1</v>
-      </c>
-      <c r="C12">
-        <v>1</v>
-      </c>
-      <c r="D12">
-        <f>VLOOKUP(B12,products!$A:$D,COLUMN(products!$C$1))</f>
-        <v>500</v>
-      </c>
-      <c r="E12">
-        <f t="shared" si="0"/>
-        <v>500</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A13">
+      <c r="C20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A21">
+        <v>15</v>
+      </c>
+      <c r="B21">
+        <v>5</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A22">
+        <v>16</v>
+      </c>
+      <c r="B22">
+        <v>2</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A23">
+        <v>17</v>
+      </c>
+      <c r="B23">
+        <v>3</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A24">
+        <v>18</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A25">
+        <v>19</v>
+      </c>
+      <c r="B25">
+        <v>5</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A26">
+        <v>19</v>
+      </c>
+      <c r="B26">
         <v>6</v>
       </c>
-      <c r="B13">
-        <v>5</v>
-      </c>
-      <c r="C13">
-        <v>1</v>
-      </c>
-      <c r="D13">
-        <f>VLOOKUP(B13,products!$A:$D,COLUMN(products!$C$1))</f>
-        <v>150</v>
-      </c>
-      <c r="E13">
-        <f t="shared" si="0"/>
-        <v>150</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A14">
-        <v>7</v>
-      </c>
-      <c r="B14">
-        <v>5</v>
-      </c>
-      <c r="C14">
-        <v>3</v>
-      </c>
-      <c r="D14">
-        <f>VLOOKUP(B14,products!$A:$D,COLUMN(products!$C$1))</f>
-        <v>150</v>
-      </c>
-      <c r="E14">
-        <f t="shared" si="0"/>
-        <v>450</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A15">
-        <v>8</v>
-      </c>
-      <c r="B15">
-        <v>1</v>
-      </c>
-      <c r="C15">
-        <v>1</v>
-      </c>
-      <c r="D15">
-        <f>VLOOKUP(B15,products!$A:$D,COLUMN(products!$C$1))</f>
-        <v>500</v>
-      </c>
-      <c r="E15">
-        <f t="shared" si="0"/>
-        <v>500</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A16">
-        <v>9</v>
-      </c>
-      <c r="B16">
-        <v>2</v>
-      </c>
-      <c r="C16">
-        <v>1</v>
-      </c>
-      <c r="D16">
-        <f>VLOOKUP(B16,products!$A:$D,COLUMN(products!$C$1))</f>
-        <v>300</v>
-      </c>
-      <c r="E16">
-        <f t="shared" si="0"/>
-        <v>300</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A17">
-        <v>10</v>
-      </c>
-      <c r="B17">
-        <v>1</v>
-      </c>
-      <c r="C17">
-        <v>1</v>
-      </c>
-      <c r="D17">
-        <f>VLOOKUP(B17,products!$A:$D,COLUMN(products!$C$1))</f>
-        <v>500</v>
-      </c>
-      <c r="E17">
-        <f t="shared" si="0"/>
-        <v>500</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A18">
-        <v>11</v>
-      </c>
-      <c r="B18">
-        <v>2</v>
-      </c>
-      <c r="C18">
-        <v>2</v>
-      </c>
-      <c r="D18">
-        <f>VLOOKUP(B18,products!$A:$D,COLUMN(products!$C$1))</f>
-        <v>300</v>
-      </c>
-      <c r="E18">
-        <f t="shared" ref="E18:E58" si="1">C18*D18</f>
-        <v>600</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A19">
-        <v>12</v>
-      </c>
-      <c r="B19">
-        <v>3</v>
-      </c>
-      <c r="C19">
-        <v>1</v>
-      </c>
-      <c r="D19">
-        <f>VLOOKUP(B19,products!$A:$D,COLUMN(products!$C$1))</f>
-        <v>200</v>
-      </c>
-      <c r="E19">
-        <f t="shared" si="1"/>
-        <v>200</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A20">
-        <v>13</v>
-      </c>
-      <c r="B20">
-        <v>4</v>
-      </c>
-      <c r="C20">
-        <v>1</v>
-      </c>
-      <c r="D20">
-        <f>VLOOKUP(B20,products!$A:$D,COLUMN(products!$C$1))</f>
-        <v>1200</v>
-      </c>
-      <c r="E20">
-        <f t="shared" si="1"/>
-        <v>1200</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A21">
-        <v>14</v>
-      </c>
-      <c r="B21">
-        <v>5</v>
-      </c>
-      <c r="C21">
-        <v>1</v>
-      </c>
-      <c r="D21">
-        <f>VLOOKUP(B21,products!$A:$D,COLUMN(products!$C$1))</f>
-        <v>150</v>
-      </c>
-      <c r="E21">
-        <f t="shared" si="1"/>
-        <v>150</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A22">
-        <v>15</v>
-      </c>
-      <c r="B22">
-        <v>6</v>
-      </c>
-      <c r="C22">
-        <v>3</v>
-      </c>
-      <c r="D22">
-        <f>VLOOKUP(B22,products!$A:$D,COLUMN(products!$C$1))</f>
-        <v>250</v>
-      </c>
-      <c r="E22">
-        <f t="shared" si="1"/>
-        <v>750</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A23">
-        <v>15</v>
-      </c>
-      <c r="B23">
-        <v>4</v>
-      </c>
-      <c r="C23">
-        <v>1</v>
-      </c>
-      <c r="D23">
-        <f>VLOOKUP(B23,products!$A:$D,COLUMN(products!$C$1))</f>
-        <v>1200</v>
-      </c>
-      <c r="E23">
-        <f t="shared" si="1"/>
-        <v>1200</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A24">
-        <v>16</v>
-      </c>
-      <c r="B24">
-        <v>2</v>
-      </c>
-      <c r="C24">
-        <v>1</v>
-      </c>
-      <c r="D24">
-        <f>VLOOKUP(B24,products!$A:$D,COLUMN(products!$C$1))</f>
-        <v>300</v>
-      </c>
-      <c r="E24">
-        <f t="shared" si="1"/>
-        <v>300</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A25">
-        <v>17</v>
-      </c>
-      <c r="B25">
-        <v>3</v>
-      </c>
-      <c r="C25">
-        <v>1</v>
-      </c>
-      <c r="D25">
-        <f>VLOOKUP(B25,products!$A:$D,COLUMN(products!$C$1))</f>
-        <v>200</v>
-      </c>
-      <c r="E25">
-        <f t="shared" si="1"/>
-        <v>200</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A26">
-        <v>18</v>
-      </c>
-      <c r="B26">
-        <v>1</v>
-      </c>
       <c r="C26">
         <v>1</v>
       </c>
-      <c r="D26">
-        <f>VLOOKUP(B26,products!$A:$D,COLUMN(products!$C$1))</f>
-        <v>500</v>
-      </c>
-      <c r="E26">
-        <f t="shared" si="1"/>
-        <v>500</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.45">
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A27">
         <v>19</v>
       </c>
       <c r="B27">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C27">
         <v>1</v>
       </c>
-      <c r="D27">
-        <f>VLOOKUP(B27,products!$A:$D,COLUMN(products!$C$1))</f>
-        <v>150</v>
-      </c>
-      <c r="E27">
-        <f t="shared" si="1"/>
-        <v>150</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.45">
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A28">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B28">
+        <v>5</v>
+      </c>
+      <c r="C28">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A29">
+        <v>21</v>
+      </c>
+      <c r="B29">
+        <v>3</v>
+      </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A30">
+        <v>22</v>
+      </c>
+      <c r="B30">
+        <v>1</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A31">
+        <v>23</v>
+      </c>
+      <c r="B31">
+        <v>5</v>
+      </c>
+      <c r="C31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A32">
+        <v>24</v>
+      </c>
+      <c r="B32">
         <v>6</v>
       </c>
-      <c r="C28">
-        <v>1</v>
-      </c>
-      <c r="D28">
-        <f>VLOOKUP(B28,products!$A:$D,COLUMN(products!$C$1))</f>
-        <v>250</v>
-      </c>
-      <c r="E28">
-        <f t="shared" si="1"/>
-        <v>250</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A29">
-        <v>19</v>
-      </c>
-      <c r="B29">
-        <v>3</v>
-      </c>
-      <c r="C29">
-        <v>1</v>
-      </c>
-      <c r="D29">
-        <f>VLOOKUP(B29,products!$A:$D,COLUMN(products!$C$1))</f>
-        <v>200</v>
-      </c>
-      <c r="E29">
-        <f t="shared" si="1"/>
-        <v>200</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A30">
-        <v>20</v>
-      </c>
-      <c r="B30">
-        <v>5</v>
-      </c>
-      <c r="C30">
+      <c r="C32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A33">
+        <v>25</v>
+      </c>
+      <c r="B33">
         <v>4</v>
       </c>
-      <c r="D30">
-        <f>VLOOKUP(B30,products!$A:$D,COLUMN(products!$C$1))</f>
-        <v>150</v>
-      </c>
-      <c r="E30">
-        <f t="shared" si="1"/>
-        <v>600</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A31">
-        <v>21</v>
-      </c>
-      <c r="B31">
-        <v>3</v>
-      </c>
-      <c r="C31">
-        <v>1</v>
-      </c>
-      <c r="D31">
-        <f>VLOOKUP(B31,products!$A:$D,COLUMN(products!$C$1))</f>
-        <v>200</v>
-      </c>
-      <c r="E31">
-        <f t="shared" si="1"/>
-        <v>200</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A32">
-        <v>22</v>
-      </c>
-      <c r="B32">
-        <v>1</v>
-      </c>
-      <c r="C32">
-        <v>1</v>
-      </c>
-      <c r="D32">
-        <f>VLOOKUP(B32,products!$A:$D,COLUMN(products!$C$1))</f>
-        <v>500</v>
-      </c>
-      <c r="E32">
-        <f t="shared" si="1"/>
-        <v>500</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A33">
-        <v>23</v>
-      </c>
-      <c r="B33">
-        <v>5</v>
-      </c>
       <c r="C33">
         <v>1</v>
       </c>
-      <c r="D33">
-        <f>VLOOKUP(B33,products!$A:$D,COLUMN(products!$C$1))</f>
-        <v>150</v>
-      </c>
-      <c r="E33">
-        <f t="shared" si="1"/>
-        <v>150</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.45">
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A34">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B34">
+        <v>2</v>
+      </c>
+      <c r="C34">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A35">
+        <v>27</v>
+      </c>
+      <c r="B35">
+        <v>3</v>
+      </c>
+      <c r="C35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A36">
+        <v>28</v>
+      </c>
+      <c r="B36">
+        <v>1</v>
+      </c>
+      <c r="C36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A37">
+        <v>29</v>
+      </c>
+      <c r="B37">
+        <v>5</v>
+      </c>
+      <c r="C37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A38">
+        <v>29</v>
+      </c>
+      <c r="B38">
         <v>6</v>
       </c>
-      <c r="C34">
-        <v>1</v>
-      </c>
-      <c r="D34">
-        <f>VLOOKUP(B34,products!$A:$D,COLUMN(products!$C$1))</f>
-        <v>250</v>
-      </c>
-      <c r="E34">
-        <f t="shared" si="1"/>
-        <v>250</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A35">
-        <v>25</v>
-      </c>
-      <c r="B35">
-        <v>4</v>
-      </c>
-      <c r="C35">
-        <v>1</v>
-      </c>
-      <c r="D35">
-        <f>VLOOKUP(B35,products!$A:$D,COLUMN(products!$C$1))</f>
-        <v>1200</v>
-      </c>
-      <c r="E35">
-        <f t="shared" si="1"/>
-        <v>1200</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A36">
-        <v>26</v>
-      </c>
-      <c r="B36">
-        <v>2</v>
-      </c>
-      <c r="C36">
-        <v>2</v>
-      </c>
-      <c r="D36">
-        <f>VLOOKUP(B36,products!$A:$D,COLUMN(products!$C$1))</f>
-        <v>300</v>
-      </c>
-      <c r="E36">
-        <f t="shared" si="1"/>
-        <v>600</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A37">
-        <v>27</v>
-      </c>
-      <c r="B37">
-        <v>3</v>
-      </c>
-      <c r="C37">
-        <v>1</v>
-      </c>
-      <c r="D37">
-        <f>VLOOKUP(B37,products!$A:$D,COLUMN(products!$C$1))</f>
-        <v>200</v>
-      </c>
-      <c r="E37">
-        <f t="shared" si="1"/>
-        <v>200</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A38">
-        <v>28</v>
-      </c>
-      <c r="B38">
-        <v>1</v>
-      </c>
       <c r="C38">
         <v>1</v>
       </c>
-      <c r="D38">
-        <f>VLOOKUP(B38,products!$A:$D,COLUMN(products!$C$1))</f>
-        <v>500</v>
-      </c>
-      <c r="E38">
-        <f t="shared" si="1"/>
-        <v>500</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.45">
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A39">
         <v>29</v>
       </c>
@@ -1831,113 +1565,65 @@
       <c r="C39">
         <v>1</v>
       </c>
-      <c r="D39">
-        <f>VLOOKUP(B39,products!$A:$D,COLUMN(products!$C$1))</f>
-        <v>150</v>
-      </c>
-      <c r="E39">
-        <f t="shared" si="1"/>
-        <v>150</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.45">
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A40">
         <v>29</v>
       </c>
       <c r="B40">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C40">
         <v>1</v>
       </c>
-      <c r="D40">
-        <f>VLOOKUP(B40,products!$A:$D,COLUMN(products!$C$1))</f>
-        <v>250</v>
-      </c>
-      <c r="E40">
-        <f t="shared" si="1"/>
-        <v>250</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.45">
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A41">
         <v>29</v>
       </c>
       <c r="B41">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C41">
         <v>1</v>
       </c>
-      <c r="D41">
-        <f>VLOOKUP(B41,products!$A:$D,COLUMN(products!$C$1))</f>
-        <v>1200</v>
-      </c>
-      <c r="E41">
-        <f t="shared" si="1"/>
-        <v>1200</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.45">
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A42">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B42">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C42">
         <v>1</v>
       </c>
-      <c r="D42">
-        <f>VLOOKUP(B42,products!$A:$D,COLUMN(products!$C$1))</f>
-        <v>300</v>
-      </c>
-      <c r="E42">
-        <f t="shared" si="1"/>
-        <v>300</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.45">
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A43">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B43">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C43">
         <v>1</v>
       </c>
-      <c r="D43">
-        <f>VLOOKUP(B43,products!$A:$D,COLUMN(products!$C$1))</f>
-        <v>200</v>
-      </c>
-      <c r="E43">
-        <f t="shared" si="1"/>
-        <v>200</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.45">
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A44">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B44">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C44">
         <v>1</v>
       </c>
-      <c r="D44">
-        <f>VLOOKUP(B44,products!$A:$D,COLUMN(products!$C$1))</f>
-        <v>500</v>
-      </c>
-      <c r="E44">
-        <f t="shared" si="1"/>
-        <v>500</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.45">
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A45">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B45">
         <v>5</v>
@@ -1945,260 +1631,115 @@
       <c r="C45">
         <v>1</v>
       </c>
-      <c r="D45">
-        <f>VLOOKUP(B45,products!$A:$D,COLUMN(products!$C$1))</f>
-        <v>150</v>
-      </c>
-      <c r="E45">
-        <f t="shared" si="1"/>
-        <v>150</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.45">
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A46">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B46">
+        <v>2</v>
+      </c>
+      <c r="C46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A47">
+        <v>35</v>
+      </c>
+      <c r="B47">
+        <v>3</v>
+      </c>
+      <c r="C47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A48">
+        <v>36</v>
+      </c>
+      <c r="B48">
+        <v>1</v>
+      </c>
+      <c r="C48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A49">
+        <v>37</v>
+      </c>
+      <c r="B49">
+        <v>5</v>
+      </c>
+      <c r="C49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A50">
+        <v>38</v>
+      </c>
+      <c r="B50">
         <v>6</v>
       </c>
-      <c r="C46">
-        <v>1</v>
-      </c>
-      <c r="D46">
-        <f>VLOOKUP(B46,products!$A:$D,COLUMN(products!$C$1))</f>
-        <v>250</v>
-      </c>
-      <c r="E46">
-        <f t="shared" si="1"/>
-        <v>250</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A47">
-        <v>33</v>
-      </c>
-      <c r="B47">
-        <v>4</v>
-      </c>
-      <c r="C47">
-        <v>1</v>
-      </c>
-      <c r="D47">
-        <f>VLOOKUP(B47,products!$A:$D,COLUMN(products!$C$1))</f>
-        <v>1200</v>
-      </c>
-      <c r="E47">
-        <f t="shared" si="1"/>
-        <v>1200</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A48">
-        <v>34</v>
-      </c>
-      <c r="B48">
-        <v>2</v>
-      </c>
-      <c r="C48">
-        <v>1</v>
-      </c>
-      <c r="D48">
-        <f>VLOOKUP(B48,products!$A:$D,COLUMN(products!$C$1))</f>
-        <v>300</v>
-      </c>
-      <c r="E48">
-        <f t="shared" si="1"/>
-        <v>300</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A49">
-        <v>35</v>
-      </c>
-      <c r="B49">
-        <v>3</v>
-      </c>
-      <c r="C49">
-        <v>1</v>
-      </c>
-      <c r="D49">
-        <f>VLOOKUP(B49,products!$A:$D,COLUMN(products!$C$1))</f>
-        <v>200</v>
-      </c>
-      <c r="E49">
-        <f t="shared" si="1"/>
-        <v>200</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A50">
-        <v>36</v>
-      </c>
-      <c r="B50">
-        <v>1</v>
-      </c>
       <c r="C50">
         <v>1</v>
       </c>
-      <c r="D50">
-        <f>VLOOKUP(B50,products!$A:$D,COLUMN(products!$C$1))</f>
-        <v>500</v>
-      </c>
-      <c r="E50">
-        <f t="shared" si="1"/>
-        <v>500</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.45">
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A51">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B51">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C51">
         <v>1</v>
       </c>
-      <c r="D51">
-        <f>VLOOKUP(B51,products!$A:$D,COLUMN(products!$C$1))</f>
-        <v>150</v>
-      </c>
-      <c r="E51">
-        <f t="shared" si="1"/>
-        <v>150</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.45">
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A52">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B52">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C52">
         <v>1</v>
       </c>
-      <c r="D52">
-        <f>VLOOKUP(B52,products!$A:$D,COLUMN(products!$C$1))</f>
-        <v>250</v>
-      </c>
-      <c r="E52">
-        <f t="shared" si="1"/>
-        <v>250</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.45">
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A53">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B53">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C53">
         <v>1</v>
       </c>
-      <c r="D53">
-        <f>VLOOKUP(B53,products!$A:$D,COLUMN(products!$C$1))</f>
-        <v>250</v>
-      </c>
-      <c r="E53">
-        <f t="shared" si="1"/>
-        <v>250</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.45">
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A54">
         <v>40</v>
       </c>
       <c r="B54">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C54">
         <v>1</v>
       </c>
-      <c r="D54">
-        <f>VLOOKUP(B54,products!$A:$D,COLUMN(products!$C$1))</f>
-        <v>300</v>
-      </c>
-      <c r="E54">
-        <f t="shared" si="1"/>
-        <v>300</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.45">
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A55">
         <v>40</v>
       </c>
       <c r="B55">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C55">
         <v>1</v>
-      </c>
-      <c r="D55">
-        <f>VLOOKUP(B55,products!$A:$D,COLUMN(products!$C$1))</f>
-        <v>200</v>
-      </c>
-      <c r="E55">
-        <f t="shared" si="1"/>
-        <v>200</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A56">
-        <v>40</v>
-      </c>
-      <c r="B56">
-        <v>1</v>
-      </c>
-      <c r="C56">
-        <v>1</v>
-      </c>
-      <c r="D56">
-        <f>VLOOKUP(B56,products!$A:$D,COLUMN(products!$C$1))</f>
-        <v>500</v>
-      </c>
-      <c r="E56">
-        <f t="shared" si="1"/>
-        <v>500</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A57">
-        <v>40</v>
-      </c>
-      <c r="B57">
-        <v>2</v>
-      </c>
-      <c r="C57">
-        <v>1</v>
-      </c>
-      <c r="D57">
-        <f>VLOOKUP(B57,products!$A:$D,COLUMN(products!$C$1))</f>
-        <v>300</v>
-      </c>
-      <c r="E57">
-        <f t="shared" si="1"/>
-        <v>300</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A58">
-        <v>40</v>
-      </c>
-      <c r="B58">
-        <v>5</v>
-      </c>
-      <c r="C58">
-        <v>1</v>
-      </c>
-      <c r="D58">
-        <f>VLOOKUP(B58,products!$A:$D,COLUMN(products!$C$1))</f>
-        <v>150</v>
-      </c>
-      <c r="E58">
-        <f t="shared" si="1"/>
-        <v>150</v>
       </c>
     </row>
   </sheetData>
@@ -2212,7 +1753,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B7"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2225,16 +1766,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>14</v>
-      </c>
       <c r="D1" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.45">
